--- a/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,58 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-14 + x + 1.6656497456000265y</t>
-  </si>
-  <si>
-    <t>-6.298544195058392</t>
+    <t>-9.75 + x + 1.2345679012345678y</t>
+  </si>
+  <si>
+    <t>-4.25</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5416861885182938</t>
-  </si>
-  <si>
-    <t>0.11978022099214423</t>
-  </si>
-  <si>
-    <t>0.3795027528187688</t>
-  </si>
-  <si>
-    <t>-2 + x - 1.5443186614457671y</t>
-  </si>
-  <si>
-    <t>-5.956103124757924</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-9.772 + x + 1.2400000000000002y</t>
+  </si>
+  <si>
+    <t>7.772</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9614613706904978</t>
-  </si>
-  <si>
-    <t>0.9973116779833929</t>
-  </si>
-  <si>
-    <t>0.4958353644980733</t>
-  </si>
-  <si>
-    <t>-1 - 2x</t>
-  </si>
-  <si>
-    <t>-4.304717731743698</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-5.069999999999997 - 2x + 3.5802469135802464y</t>
+  </si>
+  <si>
+    <t>3.9999999999999964</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8934192024608484</t>
-  </si>
-  <si>
-    <t>0.3017600704196315</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.8</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.6523588658718489</t>
-  </si>
-  <si>
-    <t>3.631674038944279</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.31919519702746</t>
+    <t>0.12108148148148201</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.181710510120028</t>
-  </si>
-  <si>
-    <t>-2.378374275478726</t>
+    <t>-3.3000000000000007</t>
+  </si>
+  <si>
+    <t>-28.302864197530862</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -618,27 +615,27 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -656,18 +653,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -685,12 +682,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -708,17 +705,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -736,12 +733,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.22784066927711644</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
